--- a/RAE05N.xlsx
+++ b/RAE05N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t/>
   </si>
@@ -158,12 +158,6 @@
   </si>
   <si>
     <t>AICE CLSC CHO ALMD90</t>
-  </si>
-  <si>
-    <t>20092989</t>
-  </si>
-  <si>
-    <t>AICE ICE SUNDAE 100</t>
   </si>
   <si>
     <t>20136303</t>
@@ -571,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -995,10 +989,10 @@
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,29 +1009,9 @@
         <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/RAE05N.xlsx
+++ b/RAE05N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t/>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>20138342</t>
+  </si>
+  <si>
+    <t>KALULI CHO MASTER 60</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -565,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1015,6 +1024,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
